--- a/data/pca/factorExposure/factorExposure_2017-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02405043946949961</v>
+        <v>0.007417525787540344</v>
       </c>
       <c r="C2">
-        <v>0.003879768142520106</v>
+        <v>-0.04252517408411968</v>
       </c>
       <c r="D2">
-        <v>0.01844429058147624</v>
+        <v>0.02992827833992283</v>
       </c>
       <c r="E2">
-        <v>-0.009766220457426551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03346925912782783</v>
+      </c>
+      <c r="F2">
+        <v>0.01534361642680052</v>
+      </c>
+      <c r="G2">
+        <v>-0.04691810919734576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01492865674894806</v>
+        <v>0.05525305150701535</v>
       </c>
       <c r="C3">
-        <v>0.05330023599422774</v>
+        <v>-0.06829788514211031</v>
       </c>
       <c r="D3">
-        <v>0.007492376351247254</v>
+        <v>0.0145455331316624</v>
       </c>
       <c r="E3">
-        <v>-0.005255531827421648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09685795075436056</v>
+      </c>
+      <c r="F3">
+        <v>0.03820402725842099</v>
+      </c>
+      <c r="G3">
+        <v>-0.1016464003836421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0230790503716516</v>
+        <v>0.05608264473208224</v>
       </c>
       <c r="C4">
-        <v>0.02174558292253423</v>
+        <v>-0.06368829304986794</v>
       </c>
       <c r="D4">
-        <v>0.06304585822257117</v>
+        <v>0.0233275560130052</v>
       </c>
       <c r="E4">
-        <v>0.01455810498121938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01770365688654267</v>
+      </c>
+      <c r="F4">
+        <v>0.006307907772731316</v>
+      </c>
+      <c r="G4">
+        <v>-0.05902496452956073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01489147795407971</v>
+        <v>0.03774906802638883</v>
       </c>
       <c r="C6">
-        <v>0.01219279923910991</v>
+        <v>-0.04985344238131016</v>
       </c>
       <c r="D6">
-        <v>0.0873993751846632</v>
+        <v>0.01562042669874641</v>
       </c>
       <c r="E6">
-        <v>0.006011532292263959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01734777877930539</v>
+      </c>
+      <c r="F6">
+        <v>0.01377867599205935</v>
+      </c>
+      <c r="G6">
+        <v>-0.0353903618220995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01062067526893578</v>
+        <v>0.01681230476747474</v>
       </c>
       <c r="C7">
-        <v>0.005711814026494281</v>
+        <v>-0.03650217059831407</v>
       </c>
       <c r="D7">
-        <v>0.03107762647236245</v>
+        <v>0.01329443653992489</v>
       </c>
       <c r="E7">
-        <v>0.07501561596979309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008623377311137628</v>
+      </c>
+      <c r="F7">
+        <v>0.001613655683050291</v>
+      </c>
+      <c r="G7">
+        <v>-0.1012232005615971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5.534109646855419e-05</v>
+        <v>-0.00155473706228437</v>
       </c>
       <c r="C8">
-        <v>0.0006236668492285646</v>
+        <v>-0.01920544112250978</v>
       </c>
       <c r="D8">
-        <v>0.005819274566378954</v>
+        <v>0.003921481828199728</v>
       </c>
       <c r="E8">
-        <v>0.007041462544829723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02324362315861251</v>
+      </c>
+      <c r="F8">
+        <v>0.01968658249761323</v>
+      </c>
+      <c r="G8">
+        <v>-0.03225733241009626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01606751932971313</v>
+        <v>0.03311041187005675</v>
       </c>
       <c r="C9">
-        <v>0.02329537201587641</v>
+        <v>-0.04460992258034056</v>
       </c>
       <c r="D9">
-        <v>0.0476893536571472</v>
+        <v>0.01611831908352536</v>
       </c>
       <c r="E9">
-        <v>0.005440322489206791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01280831898347027</v>
+      </c>
+      <c r="F9">
+        <v>0.01357318395819719</v>
+      </c>
+      <c r="G9">
+        <v>-0.05644537377131532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01737595910605656</v>
+        <v>0.09188332910015971</v>
       </c>
       <c r="C10">
-        <v>0.1599581561219389</v>
+        <v>0.1841067011591589</v>
       </c>
       <c r="D10">
-        <v>-0.1192029195484016</v>
+        <v>-0.01727091135483469</v>
       </c>
       <c r="E10">
-        <v>0.01547774720899743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01035892709977943</v>
+      </c>
+      <c r="F10">
+        <v>-0.01759147045338397</v>
+      </c>
+      <c r="G10">
+        <v>-0.05014622202373797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0005781691849443424</v>
+        <v>0.03201200992631368</v>
       </c>
       <c r="C11">
-        <v>0.008446970210589691</v>
+        <v>-0.0540046291846546</v>
       </c>
       <c r="D11">
-        <v>0.04156878546898464</v>
+        <v>0.002443373353803396</v>
       </c>
       <c r="E11">
-        <v>-0.00687832274989996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007241846579706771</v>
+      </c>
+      <c r="F11">
+        <v>0.02272387599012819</v>
+      </c>
+      <c r="G11">
+        <v>-0.03887071804356616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006144224069470427</v>
+        <v>0.03178798539136592</v>
       </c>
       <c r="C12">
-        <v>0.01592972738199919</v>
+        <v>-0.04580833443524442</v>
       </c>
       <c r="D12">
-        <v>0.04420481092397062</v>
+        <v>0.006212266370650549</v>
       </c>
       <c r="E12">
-        <v>0.002022719998945295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001498603810597923</v>
+      </c>
+      <c r="F12">
+        <v>0.005292041231573821</v>
+      </c>
+      <c r="G12">
+        <v>-0.03860345079318921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02224606188481702</v>
+        <v>0.01508755505253347</v>
       </c>
       <c r="C13">
-        <v>0.01605874595510965</v>
+        <v>-0.03150720558593722</v>
       </c>
       <c r="D13">
-        <v>0.0101355687230865</v>
+        <v>0.02511587873436559</v>
       </c>
       <c r="E13">
-        <v>-0.009413536498808465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02352346256705921</v>
+      </c>
+      <c r="F13">
+        <v>0.01117373251839941</v>
+      </c>
+      <c r="G13">
+        <v>-0.05528422328172971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007722624769552737</v>
+        <v>0.008426334872441293</v>
       </c>
       <c r="C14">
-        <v>0.0154049799803507</v>
+        <v>-0.02578816789542284</v>
       </c>
       <c r="D14">
-        <v>0.01211011670219275</v>
+        <v>0.008623045080872601</v>
       </c>
       <c r="E14">
-        <v>0.01334684660820576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005213361781629364</v>
+      </c>
+      <c r="F14">
+        <v>-0.004494675443248454</v>
+      </c>
+      <c r="G14">
+        <v>-0.05659285256677726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001370007607079367</v>
+        <v>0.03198573570170295</v>
       </c>
       <c r="C16">
-        <v>0.01563531131819075</v>
+        <v>-0.04463526309061567</v>
       </c>
       <c r="D16">
-        <v>0.04605256969709051</v>
+        <v>0.001718598164386469</v>
       </c>
       <c r="E16">
-        <v>0.001313764669798914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005173137192935032</v>
+      </c>
+      <c r="F16">
+        <v>0.008104357596237744</v>
+      </c>
+      <c r="G16">
+        <v>-0.0390629917990086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01390974563626235</v>
+        <v>0.02317157150986745</v>
       </c>
       <c r="C19">
-        <v>0.02553146912548901</v>
+        <v>-0.04867029022518781</v>
       </c>
       <c r="D19">
-        <v>0.01925627042914345</v>
+        <v>0.01651202599968257</v>
       </c>
       <c r="E19">
-        <v>0.005468079018128219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05375728604502263</v>
+      </c>
+      <c r="F19">
+        <v>0.02067834007748542</v>
+      </c>
+      <c r="G19">
+        <v>-0.06651011846344482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0109474051878244</v>
+        <v>0.01234811991216124</v>
       </c>
       <c r="C20">
-        <v>0.0104148319913175</v>
+        <v>-0.03317387822805748</v>
       </c>
       <c r="D20">
-        <v>0.009860589630825367</v>
+        <v>0.01332100214459607</v>
       </c>
       <c r="E20">
-        <v>0.0002808409798634272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02425721469897033</v>
+      </c>
+      <c r="F20">
+        <v>-0.002221177145793407</v>
+      </c>
+      <c r="G20">
+        <v>-0.05443983104873188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01528370476291142</v>
+        <v>0.01510093423501562</v>
       </c>
       <c r="C21">
-        <v>0.03225422194225303</v>
+        <v>-0.03537613849386691</v>
       </c>
       <c r="D21">
-        <v>0.01888136192414241</v>
+        <v>0.01690756047980466</v>
       </c>
       <c r="E21">
-        <v>0.0180383224636091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03258148061890207</v>
+      </c>
+      <c r="F21">
+        <v>0.00236394440421638</v>
+      </c>
+      <c r="G21">
+        <v>-0.07814217634636875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004698239983515231</v>
+        <v>0.02536362503441801</v>
       </c>
       <c r="C24">
-        <v>0.004102588354334301</v>
+        <v>-0.04855331840941627</v>
       </c>
       <c r="D24">
-        <v>0.04192937652106515</v>
+        <v>0.007321637970778175</v>
       </c>
       <c r="E24">
-        <v>-0.0007861014490404946</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003224047090152161</v>
+      </c>
+      <c r="F24">
+        <v>0.02029976112923811</v>
+      </c>
+      <c r="G24">
+        <v>-0.04190405695302776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01221151959047743</v>
+        <v>0.04019103733096734</v>
       </c>
       <c r="C25">
-        <v>0.02337201599233021</v>
+        <v>-0.05504697062256104</v>
       </c>
       <c r="D25">
-        <v>0.04295865190781579</v>
+        <v>0.01127979978828247</v>
       </c>
       <c r="E25">
-        <v>-0.00121944010033156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004735663105365685</v>
+      </c>
+      <c r="F25">
+        <v>0.01240840831025645</v>
+      </c>
+      <c r="G25">
+        <v>-0.0468761982928652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02303147649711355</v>
+        <v>0.01278430171533533</v>
       </c>
       <c r="C26">
-        <v>0.01157751929210951</v>
+        <v>-0.008191056799328373</v>
       </c>
       <c r="D26">
-        <v>-0.006471918550400106</v>
+        <v>0.02342123774279337</v>
       </c>
       <c r="E26">
-        <v>0.008943012703528635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002900426894290131</v>
+      </c>
+      <c r="F26">
+        <v>-0.003206161702211587</v>
+      </c>
+      <c r="G26">
+        <v>-0.0426104053954803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03865069058215018</v>
+        <v>0.1193018751009498</v>
       </c>
       <c r="C28">
-        <v>0.2319439959756631</v>
+        <v>0.2322956001728596</v>
       </c>
       <c r="D28">
-        <v>-0.1719582335707985</v>
+        <v>-0.008629542936319864</v>
       </c>
       <c r="E28">
-        <v>0.02448318438390188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001096309985638909</v>
+      </c>
+      <c r="F28">
+        <v>-0.01822459389045883</v>
+      </c>
+      <c r="G28">
+        <v>-0.06422678619821225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008174892722380199</v>
+        <v>0.01103291969786402</v>
       </c>
       <c r="C29">
-        <v>0.0202614227868451</v>
+        <v>-0.01952773988051961</v>
       </c>
       <c r="D29">
-        <v>0.009927569355860361</v>
+        <v>0.007418701093440871</v>
       </c>
       <c r="E29">
-        <v>0.008066191836994901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007808820152402148</v>
+      </c>
+      <c r="F29">
+        <v>-0.01335365790947108</v>
+      </c>
+      <c r="G29">
+        <v>-0.04576010057901882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02367912480363528</v>
+        <v>0.04541454846069252</v>
       </c>
       <c r="C30">
-        <v>0.00774115602985623</v>
+        <v>-0.06277397596634025</v>
       </c>
       <c r="D30">
-        <v>0.06092265695449228</v>
+        <v>0.02788138495980966</v>
       </c>
       <c r="E30">
-        <v>-0.05533672323551728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04472449302707589</v>
+      </c>
+      <c r="F30">
+        <v>0.05335538300417028</v>
+      </c>
+      <c r="G30">
+        <v>-0.03336916732835954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.008808921591089475</v>
+        <v>0.0499583170915892</v>
       </c>
       <c r="C31">
-        <v>0.04279578376554111</v>
+        <v>-0.03273759899469687</v>
       </c>
       <c r="D31">
-        <v>0.04283545295812396</v>
+        <v>0.003161356642585239</v>
       </c>
       <c r="E31">
-        <v>0.01128435540869014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008066895658270259</v>
+      </c>
+      <c r="F31">
+        <v>-0.03651371168144037</v>
+      </c>
+      <c r="G31">
+        <v>-0.04616203497024116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006124026577110772</v>
+        <v>-0.003461905307740976</v>
       </c>
       <c r="C32">
-        <v>0.02129881204753485</v>
+        <v>-0.02842483086799074</v>
       </c>
       <c r="D32">
-        <v>-0.003785678298009762</v>
+        <v>-0.00386785558758921</v>
       </c>
       <c r="E32">
-        <v>0.03211770443172509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01577918128867982</v>
+      </c>
+      <c r="F32">
+        <v>0.04515630381421416</v>
+      </c>
+      <c r="G32">
+        <v>-0.06830505206401616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01349076328843864</v>
+        <v>0.02704627013719123</v>
       </c>
       <c r="C33">
-        <v>0.02707703015684262</v>
+        <v>-0.0466701864808081</v>
       </c>
       <c r="D33">
-        <v>0.02157169782940965</v>
+        <v>0.01470131607670055</v>
       </c>
       <c r="E33">
-        <v>-0.02311700268478284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02711464787977753</v>
+      </c>
+      <c r="F33">
+        <v>0.02240094861467756</v>
+      </c>
+      <c r="G33">
+        <v>-0.06032952582530188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003978839272022091</v>
+        <v>0.03942101690568535</v>
       </c>
       <c r="C34">
-        <v>0.02319460102611876</v>
+        <v>-0.05759264157934377</v>
       </c>
       <c r="D34">
-        <v>0.04604289154671655</v>
+        <v>-0.004665810255452641</v>
       </c>
       <c r="E34">
-        <v>0.005815148647398845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004529683167697206</v>
+      </c>
+      <c r="F34">
+        <v>0.02345443952967214</v>
+      </c>
+      <c r="G34">
+        <v>-0.04804609689628046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01306820143838477</v>
+        <v>0.01252362900698747</v>
       </c>
       <c r="C36">
-        <v>0.02415283872324746</v>
+        <v>-0.008554327650070194</v>
       </c>
       <c r="D36">
-        <v>0.002979156026547798</v>
+        <v>0.01166665011219515</v>
       </c>
       <c r="E36">
-        <v>0.003024993322674532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008991836719737327</v>
+      </c>
+      <c r="F36">
+        <v>-0.004763521431383463</v>
+      </c>
+      <c r="G36">
+        <v>-0.03849526864615348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003597397136911463</v>
+        <v>0.03064763675569051</v>
       </c>
       <c r="C38">
-        <v>0.03845145262375112</v>
+        <v>-0.02765904417793035</v>
       </c>
       <c r="D38">
-        <v>0.03041562429213995</v>
+        <v>-0.007558224628361651</v>
       </c>
       <c r="E38">
-        <v>0.0012723388665812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003198663816795283</v>
+      </c>
+      <c r="F38">
+        <v>-0.01069491681484311</v>
+      </c>
+      <c r="G38">
+        <v>-0.04420690806009053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005374124549756183</v>
+        <v>0.03169141560828301</v>
       </c>
       <c r="C39">
-        <v>-0.01528803099864933</v>
+        <v>-0.08159163229284587</v>
       </c>
       <c r="D39">
-        <v>0.09210635079345568</v>
+        <v>0.01228263509633332</v>
       </c>
       <c r="E39">
-        <v>-0.00849199151112319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02194430687235907</v>
+      </c>
+      <c r="F39">
+        <v>0.03173413290757377</v>
+      </c>
+      <c r="G39">
+        <v>-0.04336237853415723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01230036189924713</v>
+        <v>0.01966370821731869</v>
       </c>
       <c r="C40">
-        <v>0.02451972198721885</v>
+        <v>-0.03147713739552091</v>
       </c>
       <c r="D40">
-        <v>0.02995479350438825</v>
+        <v>0.0133664944298788</v>
       </c>
       <c r="E40">
-        <v>-0.002286246322364246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01953260856808936</v>
+      </c>
+      <c r="F40">
+        <v>0.01350448069561561</v>
+      </c>
+      <c r="G40">
+        <v>-0.04287933480731617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00603660629511599</v>
+        <v>0.01019844887889705</v>
       </c>
       <c r="C41">
-        <v>0.02275092563390894</v>
+        <v>-0.0008021220580748602</v>
       </c>
       <c r="D41">
-        <v>-0.009540687571678882</v>
+        <v>0.003769418831558751</v>
       </c>
       <c r="E41">
-        <v>0.003359095595579161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002834873622892745</v>
+      </c>
+      <c r="F41">
+        <v>-0.007430949409958009</v>
+      </c>
+      <c r="G41">
+        <v>-0.0261635560282664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09312674941690671</v>
+        <v>0.01415612317946704</v>
       </c>
       <c r="C42">
-        <v>0.000983676001836061</v>
+        <v>-0.04093237500321199</v>
       </c>
       <c r="D42">
-        <v>0.2670258654272663</v>
+        <v>0.09407830738510121</v>
       </c>
       <c r="E42">
-        <v>-0.2848035008368366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03321082518792098</v>
+      </c>
+      <c r="F42">
+        <v>-0.04204231353671711</v>
+      </c>
+      <c r="G42">
+        <v>0.1621950864190055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007450077603858103</v>
+        <v>0.02900325332305437</v>
       </c>
       <c r="C43">
-        <v>0.02717341505370948</v>
+        <v>-0.01258864245888518</v>
       </c>
       <c r="D43">
-        <v>-0.01359173737502085</v>
+        <v>0.004820942013803816</v>
       </c>
       <c r="E43">
-        <v>-0.003072800669830021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007922583876086754</v>
+      </c>
+      <c r="F43">
+        <v>-0.001320209150268754</v>
+      </c>
+      <c r="G43">
+        <v>-0.03944428322026566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003614524140785766</v>
+        <v>0.01642483888062736</v>
       </c>
       <c r="C44">
-        <v>0.01035520324311948</v>
+        <v>-0.04757460010052282</v>
       </c>
       <c r="D44">
-        <v>0.02624986006826215</v>
+        <v>0.006086429345869437</v>
       </c>
       <c r="E44">
-        <v>0.001425726196534023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01633140837082665</v>
+      </c>
+      <c r="F44">
+        <v>0.0005909302374340209</v>
+      </c>
+      <c r="G44">
+        <v>-0.05857532655087211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01129659317164376</v>
+        <v>0.006473764804958748</v>
       </c>
       <c r="C46">
-        <v>0.01998408807863393</v>
+        <v>-0.01693743473131603</v>
       </c>
       <c r="D46">
-        <v>0.01080631823317866</v>
+        <v>0.0114415293093718</v>
       </c>
       <c r="E46">
-        <v>0.002576758686818488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006493603658384769</v>
+      </c>
+      <c r="F46">
+        <v>-0.01667826325544571</v>
+      </c>
+      <c r="G46">
+        <v>-0.04401907420300895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.003335663303760286</v>
+        <v>0.07607613477108953</v>
       </c>
       <c r="C47">
-        <v>0.05787918734614149</v>
+        <v>-0.06432559250621522</v>
       </c>
       <c r="D47">
-        <v>0.056707935785149</v>
+        <v>-0.005405902040918131</v>
       </c>
       <c r="E47">
-        <v>0.0004437219806911079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01185939365262867</v>
+      </c>
+      <c r="F47">
+        <v>-0.05533938546781322</v>
+      </c>
+      <c r="G47">
+        <v>-0.04126398889680911</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003868826366342244</v>
+        <v>0.02007213140995263</v>
       </c>
       <c r="C48">
-        <v>0.02967505417493536</v>
+        <v>-0.009581247695086439</v>
       </c>
       <c r="D48">
-        <v>0.01013016427782958</v>
+        <v>0.0007776247687291917</v>
       </c>
       <c r="E48">
-        <v>0.003516173965436751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004799272481804481</v>
+      </c>
+      <c r="F48">
+        <v>-0.01778827137160938</v>
+      </c>
+      <c r="G48">
+        <v>-0.0435553033856433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.005094505419041007</v>
+        <v>0.07859805719194911</v>
       </c>
       <c r="C50">
-        <v>0.05491243685972547</v>
+        <v>-0.06602965343380614</v>
       </c>
       <c r="D50">
-        <v>0.06100539740479558</v>
+        <v>-0.003701380186799056</v>
       </c>
       <c r="E50">
-        <v>0.03100183951015206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01617506721217089</v>
+      </c>
+      <c r="F50">
+        <v>-0.05813010566623975</v>
+      </c>
+      <c r="G50">
+        <v>-0.06633282343458741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007647924429076581</v>
+        <v>0.01406137625513868</v>
       </c>
       <c r="C51">
-        <v>0.0213141501693578</v>
+        <v>-0.03322042418939679</v>
       </c>
       <c r="D51">
-        <v>-0.004047123299322015</v>
+        <v>0.009601042488846828</v>
       </c>
       <c r="E51">
-        <v>0.003589826301092129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01247333257877781</v>
+      </c>
+      <c r="F51">
+        <v>0.02919574217042052</v>
+      </c>
+      <c r="G51">
+        <v>-0.06647489476856133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.006228427983020275</v>
+        <v>0.08367281295567022</v>
       </c>
       <c r="C53">
-        <v>0.0701948393193649</v>
+        <v>-0.07833421100859068</v>
       </c>
       <c r="D53">
-        <v>0.1181647447722784</v>
+        <v>-0.005022739010104858</v>
       </c>
       <c r="E53">
-        <v>0.008405721194827097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03592512595549271</v>
+      </c>
+      <c r="F53">
+        <v>-0.0606486305922514</v>
+      </c>
+      <c r="G53">
+        <v>-0.03886445554121503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0007567608314908666</v>
+        <v>0.03222816301663048</v>
       </c>
       <c r="C54">
-        <v>0.03696561408085722</v>
+        <v>-0.01231564607495783</v>
       </c>
       <c r="D54">
-        <v>-0.008292370523896838</v>
+        <v>-0.002949585315314543</v>
       </c>
       <c r="E54">
-        <v>0.01157507262027882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001051400404837697</v>
+      </c>
+      <c r="F54">
+        <v>-0.005749992625509067</v>
+      </c>
+      <c r="G54">
+        <v>-0.04878106564208076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003277974921666104</v>
+        <v>0.07194769029798954</v>
       </c>
       <c r="C55">
-        <v>0.05214768183116382</v>
+        <v>-0.06980777297178493</v>
       </c>
       <c r="D55">
-        <v>0.1009619545340834</v>
+        <v>-0.005444052948120132</v>
       </c>
       <c r="E55">
-        <v>-0.004522815800189857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02727761630479809</v>
+      </c>
+      <c r="F55">
+        <v>-0.05887338614949633</v>
+      </c>
+      <c r="G55">
+        <v>-0.02199172503681644</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.005032755679621184</v>
+        <v>0.1434369692160269</v>
       </c>
       <c r="C56">
-        <v>0.09887608552059128</v>
+        <v>-0.1047330903001959</v>
       </c>
       <c r="D56">
-        <v>0.1488647149936671</v>
+        <v>-0.01329872403501892</v>
       </c>
       <c r="E56">
-        <v>-0.001253817548996829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04018409261197335</v>
+      </c>
+      <c r="F56">
+        <v>-0.0819216278918454</v>
+      </c>
+      <c r="G56">
+        <v>-0.008686434851915687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02440205618563284</v>
+        <v>0.009397718458221285</v>
       </c>
       <c r="C57">
-        <v>0.02328156991132698</v>
+        <v>-0.009449898200138125</v>
       </c>
       <c r="D57">
-        <v>0.04053883213343834</v>
+        <v>0.02355821079005452</v>
       </c>
       <c r="E57">
-        <v>-0.003838661615075725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02753673299375463</v>
+      </c>
+      <c r="F57">
+        <v>0.01091156504619605</v>
+      </c>
+      <c r="G57">
+        <v>-0.02398323081395541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01323174259133603</v>
+        <v>0.08220397550225091</v>
       </c>
       <c r="C58">
-        <v>0.1007466390764662</v>
+        <v>-0.0324388866923456</v>
       </c>
       <c r="D58">
-        <v>0.09312617875714231</v>
+        <v>0.01700598141744969</v>
       </c>
       <c r="E58">
-        <v>-0.2002083243924159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9394828951683851</v>
+      </c>
+      <c r="F58">
+        <v>-0.2466076952530193</v>
+      </c>
+      <c r="G58">
+        <v>0.02837931718359514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03536269456493588</v>
+        <v>0.1601948181754559</v>
       </c>
       <c r="C59">
-        <v>0.2466591436649616</v>
+        <v>0.2108818971894148</v>
       </c>
       <c r="D59">
-        <v>-0.1740738018760469</v>
+        <v>-0.01531357655085304</v>
       </c>
       <c r="E59">
-        <v>0.0008904898831872672</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.005206420984090726</v>
+      </c>
+      <c r="F59">
+        <v>0.007049433804819464</v>
+      </c>
+      <c r="G59">
+        <v>-0.02109640465168297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03889649826879469</v>
+        <v>0.2851469438718277</v>
       </c>
       <c r="C60">
-        <v>0.1684541259549649</v>
+        <v>-0.1034069859334495</v>
       </c>
       <c r="D60">
-        <v>0.06789210095833667</v>
+        <v>0.01288098713124123</v>
       </c>
       <c r="E60">
-        <v>-0.04042561824011125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001432001170679069</v>
+      </c>
+      <c r="F60">
+        <v>0.3395983847337003</v>
+      </c>
+      <c r="G60">
+        <v>0.09229646513029742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003645779656356827</v>
+        <v>0.03532092756460704</v>
       </c>
       <c r="C61">
-        <v>0.01155499155457945</v>
+        <v>-0.06545447542466423</v>
       </c>
       <c r="D61">
-        <v>0.06375800070470565</v>
+        <v>0.005593445438478238</v>
       </c>
       <c r="E61">
-        <v>-0.003371478768319064</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01109187119027979</v>
+      </c>
+      <c r="F61">
+        <v>0.02067514498162113</v>
+      </c>
+      <c r="G61">
+        <v>-0.04004900026708631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007602348852932142</v>
+        <v>0.01359283042541799</v>
       </c>
       <c r="C63">
-        <v>0.009911956145652859</v>
+        <v>-0.02793087452935496</v>
       </c>
       <c r="D63">
-        <v>0.008534981544273129</v>
+        <v>0.007894631783997248</v>
       </c>
       <c r="E63">
-        <v>0.008103707408555724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004589380442876882</v>
+      </c>
+      <c r="F63">
+        <v>-0.01562937142784618</v>
+      </c>
+      <c r="G63">
+        <v>-0.04769966550616436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008095085478571745</v>
+        <v>0.05180694693114567</v>
       </c>
       <c r="C64">
-        <v>0.03291792248164517</v>
+        <v>-0.04467492890328384</v>
       </c>
       <c r="D64">
-        <v>0.06486839618568946</v>
+        <v>0.005397803888715923</v>
       </c>
       <c r="E64">
-        <v>-0.01351318090884677</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006932808240229298</v>
+      </c>
+      <c r="F64">
+        <v>0.004865676426371018</v>
+      </c>
+      <c r="G64">
+        <v>-0.03293404891176813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01674827524671669</v>
+        <v>0.08420494858729542</v>
       </c>
       <c r="C65">
-        <v>0.01194138525673239</v>
+        <v>-0.05840170424929714</v>
       </c>
       <c r="D65">
-        <v>0.101689358273945</v>
+        <v>0.01482250830824104</v>
       </c>
       <c r="E65">
-        <v>0.00597458488660843</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0176072770820561</v>
+      </c>
+      <c r="F65">
+        <v>0.02861527993123152</v>
+      </c>
+      <c r="G65">
+        <v>-0.01562024818521976</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00530031206623359</v>
+        <v>0.05030730679717019</v>
       </c>
       <c r="C66">
-        <v>-0.006230258389974069</v>
+        <v>-0.1124683938961488</v>
       </c>
       <c r="D66">
-        <v>0.1190257132552999</v>
+        <v>0.01202671702717603</v>
       </c>
       <c r="E66">
-        <v>-0.02047155895866217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02695279672700312</v>
+      </c>
+      <c r="F66">
+        <v>0.03746423316221979</v>
+      </c>
+      <c r="G66">
+        <v>-0.04062740839854534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.002612263495663988</v>
+        <v>0.05271398290490123</v>
       </c>
       <c r="C67">
-        <v>0.05974768694195939</v>
+        <v>-0.03190355228992457</v>
       </c>
       <c r="D67">
-        <v>0.03454777910614855</v>
+        <v>-0.005604525523002936</v>
       </c>
       <c r="E67">
-        <v>0.0001453858905763341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003200568303395669</v>
+      </c>
+      <c r="F67">
+        <v>-0.0122693346428485</v>
+      </c>
+      <c r="G67">
+        <v>-0.04081668179867771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05275077636616769</v>
+        <v>0.1425317437508214</v>
       </c>
       <c r="C68">
-        <v>0.2217415890940105</v>
+        <v>0.2714294636958943</v>
       </c>
       <c r="D68">
-        <v>-0.1632931481543803</v>
+        <v>0.002819281610651056</v>
       </c>
       <c r="E68">
-        <v>-0.002837827223939803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005078741204339765</v>
+      </c>
+      <c r="F68">
+        <v>-0.03075020344208819</v>
+      </c>
+      <c r="G68">
+        <v>-0.0233476670419386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001473627149065813</v>
+        <v>0.07678776724289571</v>
       </c>
       <c r="C69">
-        <v>0.04774095219999427</v>
+        <v>-0.06661081384809141</v>
       </c>
       <c r="D69">
-        <v>0.05954683861533222</v>
+        <v>-0.009169203717757118</v>
       </c>
       <c r="E69">
-        <v>0.001764522355326945</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02873382097189816</v>
+      </c>
+      <c r="F69">
+        <v>-0.03835603614750539</v>
+      </c>
+      <c r="G69">
+        <v>-0.04596072842566112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03861348783285214</v>
+        <v>0.1357957357478944</v>
       </c>
       <c r="C71">
-        <v>0.1954305791615508</v>
+        <v>0.2340404417258511</v>
       </c>
       <c r="D71">
-        <v>-0.1471673901803268</v>
+        <v>-0.006079598009513473</v>
       </c>
       <c r="E71">
-        <v>0.01025247074344052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02327281029096541</v>
+      </c>
+      <c r="F71">
+        <v>-0.008815412654570301</v>
+      </c>
+      <c r="G71">
+        <v>-0.03913522648454185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0001067672604390032</v>
+        <v>0.08498413102231317</v>
       </c>
       <c r="C72">
-        <v>0.05587491800237461</v>
+        <v>-0.07318133928595512</v>
       </c>
       <c r="D72">
-        <v>0.1303763133052672</v>
+        <v>-0.007812404832549714</v>
       </c>
       <c r="E72">
-        <v>-0.02174163486693741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003075516772751629</v>
+      </c>
+      <c r="F72">
+        <v>0.04610631274076531</v>
+      </c>
+      <c r="G72">
+        <v>-0.01935279445964555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05186776320334609</v>
+        <v>0.4012785488494939</v>
       </c>
       <c r="C73">
-        <v>0.1935946410003268</v>
+        <v>-0.1237370294711202</v>
       </c>
       <c r="D73">
-        <v>0.1608184276457171</v>
+        <v>0.02078075233818831</v>
       </c>
       <c r="E73">
-        <v>-0.1013202060814512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06883671809504689</v>
+      </c>
+      <c r="F73">
+        <v>0.5525989215410374</v>
+      </c>
+      <c r="G73">
+        <v>0.1634019977982537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.002362057253074504</v>
+        <v>0.1117059650928007</v>
       </c>
       <c r="C74">
-        <v>0.08856530970166283</v>
+        <v>-0.1149958819777098</v>
       </c>
       <c r="D74">
-        <v>0.1569547792697594</v>
+        <v>-0.01031364789193466</v>
       </c>
       <c r="E74">
-        <v>-0.008669754655925095</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01839086180028616</v>
+      </c>
+      <c r="F74">
+        <v>-0.07674503855400501</v>
+      </c>
+      <c r="G74">
+        <v>-0.04651317583867745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.009086113529955864</v>
+        <v>0.2499145167982555</v>
       </c>
       <c r="C75">
-        <v>0.1979444466902254</v>
+        <v>-0.1509107236553129</v>
       </c>
       <c r="D75">
-        <v>0.2789143312604062</v>
+        <v>-0.03083715757490195</v>
       </c>
       <c r="E75">
-        <v>-0.02030441525005375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05965379841904103</v>
+      </c>
+      <c r="F75">
+        <v>-0.1885983806816684</v>
+      </c>
+      <c r="G75">
+        <v>0.04318789456210217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001404987935849294</v>
+        <v>0.1261724185853114</v>
       </c>
       <c r="C76">
-        <v>0.1299335061049595</v>
+        <v>-0.1141588453838629</v>
       </c>
       <c r="D76">
-        <v>0.2274747016824138</v>
+        <v>-0.02140741538836828</v>
       </c>
       <c r="E76">
-        <v>0.009315802803033096</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05040443609938497</v>
+      </c>
+      <c r="F76">
+        <v>-0.1214669590962429</v>
+      </c>
+      <c r="G76">
+        <v>-0.02141459115869822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01213914252377708</v>
+        <v>0.06539354031566701</v>
       </c>
       <c r="C77">
-        <v>0.02112241685761839</v>
+        <v>-0.06051578256812388</v>
       </c>
       <c r="D77">
-        <v>0.05236680145782709</v>
+        <v>0.01220129463936101</v>
       </c>
       <c r="E77">
-        <v>-0.006780999913112949</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04928246711450863</v>
+      </c>
+      <c r="F77">
+        <v>0.009027941135341319</v>
+      </c>
+      <c r="G77">
+        <v>-0.05261356947134484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00466364086745509</v>
+        <v>0.04186705021915193</v>
       </c>
       <c r="C78">
-        <v>0.01735201415202922</v>
+        <v>-0.05118479281566834</v>
       </c>
       <c r="D78">
-        <v>0.06368539001719754</v>
+        <v>0.005601632159139685</v>
       </c>
       <c r="E78">
-        <v>-0.001431529881264757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02079193168655214</v>
+      </c>
+      <c r="F78">
+        <v>0.0383474192955785</v>
+      </c>
+      <c r="G78">
+        <v>-0.04705417695042109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01570081612652356</v>
+        <v>0.0548890748250169</v>
       </c>
       <c r="C80">
-        <v>0.09572021799849603</v>
+        <v>-0.0656906097098361</v>
       </c>
       <c r="D80">
-        <v>0.1720035248791448</v>
+        <v>0.0124495112393951</v>
       </c>
       <c r="E80">
-        <v>0.9108384127912996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03023284613359009</v>
+      </c>
+      <c r="F80">
+        <v>0.01570729591239835</v>
+      </c>
+      <c r="G80">
+        <v>-0.850005446590782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.006435110126877963</v>
+        <v>0.1441969102513719</v>
       </c>
       <c r="C81">
-        <v>0.121458919655917</v>
+        <v>-0.08994977480588723</v>
       </c>
       <c r="D81">
-        <v>0.1653368780153666</v>
+        <v>-0.01598580401183879</v>
       </c>
       <c r="E81">
-        <v>-0.001908606295508153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03566351541063239</v>
+      </c>
+      <c r="F81">
+        <v>-0.1262949177648409</v>
+      </c>
+      <c r="G81">
+        <v>-0.01823272748091549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1042505355667374</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05213435274924171</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005667621967333748</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07865652849684532</v>
+      </c>
+      <c r="F82">
+        <v>-0.01477764488110146</v>
+      </c>
+      <c r="G82">
+        <v>-0.0262657912519882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007153451687190616</v>
+        <v>0.02857786609087221</v>
       </c>
       <c r="C83">
-        <v>0.02461036570184946</v>
+        <v>-0.02248344771883553</v>
       </c>
       <c r="D83">
-        <v>0.02188923965717486</v>
+        <v>0.0059112537942189</v>
       </c>
       <c r="E83">
-        <v>-0.001558015810669615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02816077786168643</v>
+      </c>
+      <c r="F83">
+        <v>0.03507621984829603</v>
+      </c>
+      <c r="G83">
+        <v>-0.03363068003588821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01543960291182677</v>
+        <v>0.2214079866838714</v>
       </c>
       <c r="C85">
-        <v>0.154404185672232</v>
+        <v>-0.1449948577524887</v>
       </c>
       <c r="D85">
-        <v>0.2591448690852164</v>
+        <v>-0.01876783813527153</v>
       </c>
       <c r="E85">
-        <v>-0.02625158026168888</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09982288664008553</v>
+      </c>
+      <c r="F85">
+        <v>-0.1507976367092862</v>
+      </c>
+      <c r="G85">
+        <v>0.07440489702875124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007766026362828268</v>
+        <v>0.01433793183284643</v>
       </c>
       <c r="C86">
-        <v>0.0277727638924602</v>
+        <v>-0.0208256229504374</v>
       </c>
       <c r="D86">
-        <v>0.01034641769489355</v>
+        <v>0.01105147493339122</v>
       </c>
       <c r="E86">
-        <v>-0.02789110547452948</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03860131089358533</v>
+      </c>
+      <c r="F86">
+        <v>0.04760615334455733</v>
+      </c>
+      <c r="G86">
+        <v>-0.08316475475659356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007840486151050515</v>
+        <v>0.01991718082407515</v>
       </c>
       <c r="C87">
-        <v>0.01610119408081588</v>
+        <v>-0.02474008871880838</v>
       </c>
       <c r="D87">
-        <v>0.04273551708434897</v>
+        <v>0.0110378527198634</v>
       </c>
       <c r="E87">
-        <v>-0.006097202717948912</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08317329667102971</v>
+      </c>
+      <c r="F87">
+        <v>0.0251334380748324</v>
+      </c>
+      <c r="G87">
+        <v>-0.06157875843605939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02744268141323964</v>
+        <v>0.09004878142993973</v>
       </c>
       <c r="C88">
-        <v>0.03650338836250001</v>
+        <v>-0.06343050967126554</v>
       </c>
       <c r="D88">
-        <v>0.03724106685577986</v>
+        <v>0.02227611471697284</v>
       </c>
       <c r="E88">
-        <v>0.0004592313301042016</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01713556807688756</v>
+      </c>
+      <c r="F88">
+        <v>-0.02238107466251932</v>
+      </c>
+      <c r="G88">
+        <v>-0.03828095128939573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07312294832781201</v>
+        <v>0.2185850777504531</v>
       </c>
       <c r="C89">
-        <v>0.3589545757697892</v>
+        <v>0.3704511655218597</v>
       </c>
       <c r="D89">
-        <v>-0.2521858257468363</v>
+        <v>-0.004886141313519236</v>
       </c>
       <c r="E89">
-        <v>-0.006711416520255695</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02175737103048351</v>
+      </c>
+      <c r="F89">
+        <v>-0.02107408048218214</v>
+      </c>
+      <c r="G89">
+        <v>-0.03382641500345106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05564328241714939</v>
+        <v>0.1979231543271847</v>
       </c>
       <c r="C90">
-        <v>0.2748383201023372</v>
+        <v>0.3301934692726318</v>
       </c>
       <c r="D90">
-        <v>-0.2241564371601381</v>
+        <v>-0.009199806634612317</v>
       </c>
       <c r="E90">
-        <v>-0.01030097845205151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02171786845641653</v>
+      </c>
+      <c r="F90">
+        <v>-0.04212369633524024</v>
+      </c>
+      <c r="G90">
+        <v>-0.006734150221924769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.005346073950257072</v>
+        <v>0.1970734648224453</v>
       </c>
       <c r="C91">
-        <v>0.1709476776206178</v>
+        <v>-0.1350817110438194</v>
       </c>
       <c r="D91">
-        <v>0.235440171832781</v>
+        <v>-0.02439021878262478</v>
       </c>
       <c r="E91">
-        <v>-0.005416063118804248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07449489149752272</v>
+      </c>
+      <c r="F91">
+        <v>-0.1595189456085598</v>
+      </c>
+      <c r="G91">
+        <v>-0.002990348080814667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02279550888643785</v>
+        <v>0.2039052947164276</v>
       </c>
       <c r="C92">
-        <v>0.3103637716507447</v>
+        <v>0.2644113694819363</v>
       </c>
       <c r="D92">
-        <v>-0.1072501892241507</v>
+        <v>-0.0454731820346418</v>
       </c>
       <c r="E92">
-        <v>-0.0002513105187948275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003641738192548928</v>
+      </c>
+      <c r="F92">
+        <v>-0.06423999425901884</v>
+      </c>
+      <c r="G92">
+        <v>-0.07714444537412571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05408422706895799</v>
+        <v>0.2261651072256319</v>
       </c>
       <c r="C93">
-        <v>0.3070398920002115</v>
+        <v>0.3244835016750579</v>
       </c>
       <c r="D93">
-        <v>-0.2212322360270137</v>
+        <v>-0.0161283910443666</v>
       </c>
       <c r="E93">
-        <v>-0.02952541287185478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009528444752669158</v>
+      </c>
+      <c r="F93">
+        <v>-0.03529177386295827</v>
+      </c>
+      <c r="G93">
+        <v>-0.005137356033644151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02814015368445021</v>
+        <v>0.3003891406974709</v>
       </c>
       <c r="C94">
-        <v>0.2018100710700309</v>
+        <v>-0.1762690341574061</v>
       </c>
       <c r="D94">
-        <v>0.237733394521078</v>
+        <v>-0.01693958723969688</v>
       </c>
       <c r="E94">
-        <v>-0.04531335987642651</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1585662592005141</v>
+      </c>
+      <c r="F94">
+        <v>-0.4870872249503089</v>
+      </c>
+      <c r="G94">
+        <v>0.2003065399269892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0045859967749331</v>
+        <v>0.086170124983257</v>
       </c>
       <c r="C95">
-        <v>0.04669222942275895</v>
+        <v>-0.08773029009353391</v>
       </c>
       <c r="D95">
-        <v>0.09212181350304144</v>
+        <v>-0.006407681489646379</v>
       </c>
       <c r="E95">
-        <v>-0.1096297678637414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07496185483127984</v>
+      </c>
+      <c r="F95">
+        <v>0.1948521839197713</v>
+      </c>
+      <c r="G95">
+        <v>0.07215510050775779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01271283960888294</v>
+        <v>0.1987331870632326</v>
       </c>
       <c r="C98">
-        <v>0.1677978172919612</v>
+        <v>-0.04582272332640189</v>
       </c>
       <c r="D98">
-        <v>0.1134401112973125</v>
+        <v>-0.01254059832810079</v>
       </c>
       <c r="E98">
-        <v>-0.06135930423666566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06924649715837893</v>
+      </c>
+      <c r="F98">
+        <v>0.2441751939933792</v>
+      </c>
+      <c r="G98">
+        <v>0.02615291794835681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00796059448896832</v>
+        <v>0.01081953184054551</v>
       </c>
       <c r="C101">
-        <v>0.01990844858122034</v>
+        <v>-0.01947998656765565</v>
       </c>
       <c r="D101">
-        <v>0.009710269907762586</v>
+        <v>0.007243251353988334</v>
       </c>
       <c r="E101">
-        <v>0.008535262822865406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008063285088549664</v>
+      </c>
+      <c r="F101">
+        <v>-0.01440603389161522</v>
+      </c>
+      <c r="G101">
+        <v>-0.04557770544566579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01698315564534883</v>
+        <v>0.1199698300339054</v>
       </c>
       <c r="C102">
-        <v>0.08823945882361107</v>
+        <v>-0.08223139453476758</v>
       </c>
       <c r="D102">
-        <v>0.1216745945545564</v>
+        <v>0.0008239357689115129</v>
       </c>
       <c r="E102">
-        <v>-0.009616323537669329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03358596188061906</v>
+      </c>
+      <c r="F102">
+        <v>-0.04163527424394544</v>
+      </c>
+      <c r="G102">
+        <v>0.00273814840275427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001372920610954359</v>
+        <v>0.003186196871290094</v>
       </c>
       <c r="C103">
-        <v>0.01036032554005121</v>
+        <v>-0.004812932812182672</v>
       </c>
       <c r="D103">
-        <v>0.02605853800216267</v>
+        <v>0.0001118774948924304</v>
       </c>
       <c r="E103">
-        <v>0.01494850775430277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002050176774523826</v>
+      </c>
+      <c r="F103">
+        <v>-0.009384783621551559</v>
+      </c>
+      <c r="G103">
+        <v>-0.01565856433208426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9788414414384161</v>
+        <v>0.02753460841880952</v>
       </c>
       <c r="C104">
-        <v>-0.1538312708928039</v>
+        <v>0.03784265458119394</v>
       </c>
       <c r="D104">
-        <v>-0.002320990888990909</v>
+        <v>0.9873150240265561</v>
       </c>
       <c r="E104">
-        <v>0.02623463909340051</v>
+        <v>-0.04189638911861197</v>
+      </c>
+      <c r="F104">
+        <v>-0.04344488965489528</v>
+      </c>
+      <c r="G104">
+        <v>0.01356657483067519</v>
       </c>
     </row>
   </sheetData>
